--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>414138.825505445</v>
+        <v>414138.8255054448</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914736</v>
+        <v>2589789.105914735</v>
       </c>
     </row>
     <row r="8">
@@ -656,73 +656,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,76 +735,76 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="V3" t="n">
+        <v>38.87161743162455</v>
+      </c>
+      <c r="W3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="S3" t="n">
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="4">
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>19.93169026592149</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
         <v>44.13217237922859</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162455</v>
       </c>
     </row>
     <row r="6">
@@ -975,73 +975,73 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W6" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,64 +1142,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="G8" t="n">
+      <c r="Y8" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="H8" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16.93162886246721</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,67 +1215,67 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E9" t="n">
-        <v>38.87161743162455</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="G9" t="n">
+      <c r="X9" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="H9" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9316902659215</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,10 +1333,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,56 +1370,56 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38.87161743162454</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D11" t="n">
+      <c r="S11" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>28.88091821707974</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>22.653131001028</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,31 +1570,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="F14" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="U14" t="n">
-        <v>28.88091821707974</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>44.13217237922859</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,61 +1777,61 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="I16" t="n">
+      <c r="Y16" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="J16" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,43 +1853,43 @@
         <v>44.13217237922859</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>38.87161743162454</v>
+      </c>
+      <c r="I17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>44.13217237922859</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="19">
@@ -2002,73 +2002,73 @@
         <v>44.13217237922859</v>
       </c>
       <c r="C19" t="n">
+        <v>0.790450447682262</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.790450447682262</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,58 +2090,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2163,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>32.44882437674524</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>163.314211602186</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>70.10136126801662</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,73 +2552,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>95.41527624232027</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>117.650282556389</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,58 +2804,58 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>70.34400780127524</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>32.44882437674524</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>21.77552112412372</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,52 +2950,52 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>6.070819998298274</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3308,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>150.9993436125</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,46 +3430,46 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>165.4878196644349</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,70 +3737,70 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,55 +3895,55 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>44.13217237922859</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W45" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="X45" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4138,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.7904504476822409</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.13217237922859</v>
+        <v>0.7904504476822691</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
         <v>3.530573790338288</v>
@@ -4337,43 +4337,43 @@
         <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V2" t="n">
-        <v>176.5286895169144</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W2" t="n">
-        <v>131.9507376187037</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X2" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4410,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
         <v>89.14698820604177</v>
@@ -4431,28 +4431,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="S3" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="T3" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="U3" t="n">
         <v>131.9507376187037</v>
       </c>
-      <c r="S3" t="n">
-        <v>87.37278572049297</v>
-      </c>
-      <c r="T3" t="n">
-        <v>87.37278572049297</v>
-      </c>
-      <c r="U3" t="n">
-        <v>87.37278572049297</v>
-      </c>
       <c r="V3" t="n">
-        <v>87.37278572049297</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W3" t="n">
-        <v>87.37278572049297</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X3" t="n">
-        <v>87.37278572049297</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>90.73598234693722</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
         <v>70.60296187630945</v>
@@ -4504,34 +4504,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.10852568854899</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C5" t="n">
         <v>48.10852568854899</v>
       </c>
       <c r="D5" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
         <v>3.530573790338288</v>
@@ -4568,13 +4568,13 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
         <v>132.8378388614781</v>
@@ -4586,31 +4586,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="T5" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="U5" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="V5" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="W5" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="X5" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="Y5" t="n">
         <v>137.2644294849704</v>
-      </c>
-      <c r="T5" t="n">
-        <v>137.2644294849704</v>
-      </c>
-      <c r="U5" t="n">
-        <v>137.2644294849704</v>
-      </c>
-      <c r="V5" t="n">
-        <v>137.2644294849704</v>
-      </c>
-      <c r="W5" t="n">
-        <v>137.2644294849704</v>
-      </c>
-      <c r="X5" t="n">
-        <v>137.2644294849704</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
         <v>3.530573790338288</v>
@@ -4653,16 +4653,16 @@
         <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>90.91227510121089</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
         <v>176.5286895169144</v>
@@ -4674,22 +4674,22 @@
         <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W6" t="n">
-        <v>131.9507376187037</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y6" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>26.02500997809875</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>26.02500997809875</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
         <v>26.02500997809875</v>
@@ -4741,34 +4741,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.02500997809875</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.4370741486873</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>166.4370741486873</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>166.4370741486873</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>166.4370741486873</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>121.8591222504766</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>77.28117035226589</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>32.70321845405519</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="L8" t="n">
         <v>47.22142444577459</v>
-      </c>
-      <c r="L8" t="n">
-        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
         <v>90.91227510121089</v>
@@ -4823,31 +4823,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>166.4370741486873</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.4370741486873</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E9" t="n">
-        <v>137.2644294849704</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
         <v>3.530573790338288</v>
@@ -4887,19 +4887,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
         <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
+        <v>89.14698820604177</v>
+      </c>
+      <c r="P9" t="n">
         <v>132.8378388614781</v>
-      </c>
-      <c r="P9" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
         <v>176.5286895169144</v>
@@ -4920,13 +4920,13 @@
         <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H10" t="n">
-        <v>46.15803044872652</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>46.15803044872652</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
         <v>26.02500997809875</v>
@@ -4981,31 +4981,31 @@
         <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.73598234693722</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.15803044872652</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.68647758675968</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C11" t="n">
-        <v>48.10852568854899</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D11" t="n">
         <v>3.530573790338288</v>
@@ -5045,13 +5045,13 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
         <v>132.8378388614781</v>
@@ -5060,31 +5060,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>137.2644294849704</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S11" t="n">
-        <v>137.2644294849704</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T11" t="n">
-        <v>137.2644294849704</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U11" t="n">
-        <v>137.2644294849704</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V11" t="n">
-        <v>137.2644294849704</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W11" t="n">
-        <v>137.2644294849704</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X11" t="n">
-        <v>92.68647758675968</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.68647758675968</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="12">
@@ -5133,31 +5133,31 @@
         <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>92.68647758675968</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>48.10852568854899</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X12" t="n">
         <v>3.530573790338288</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C13" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D13" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E13" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F13" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G13" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H13" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J13" t="n">
         <v>26.02500997809875</v>
@@ -5218,31 +5218,31 @@
         <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
         <v>93.48491238239833</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.68647758675968</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>92.68647758675968</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>92.68647758675968</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
         <v>48.10852568854899</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I14" t="n">
         <v>3.530573790338288</v>
@@ -5282,16 +5282,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>3.530573790338288</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>134.6031257566472</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
         <v>176.5286895169144</v>
@@ -5306,22 +5306,22 @@
         <v>166.4370741486873</v>
       </c>
       <c r="T14" t="n">
-        <v>166.4370741486873</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U14" t="n">
-        <v>137.2644294849704</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V14" t="n">
-        <v>92.68647758675968</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W14" t="n">
-        <v>92.68647758675968</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X14" t="n">
-        <v>92.68647758675968</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.68647758675968</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5367,37 +5367,37 @@
         <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>90.91227510121089</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O15" t="n">
-        <v>90.91227510121089</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>134.6031257566472</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V15" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W15" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
         <v>3.530573790338288</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>137.2644294849704</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
         <v>3.530573790338288</v>
@@ -5476,10 +5476,10 @@
         <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E17" t="n">
-        <v>131.9507376187037</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F17" t="n">
         <v>87.37278572049297</v>
       </c>
       <c r="G17" t="n">
-        <v>42.79483382228227</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H17" t="n">
-        <v>42.79483382228227</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I17" t="n">
         <v>3.530573790338288</v>
@@ -5525,10 +5525,10 @@
         <v>90.91227510121089</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
@@ -5537,28 +5537,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I18" t="n">
         <v>3.530573790338288</v>
@@ -5595,19 +5595,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
         <v>176.5286895169144</v>
@@ -5622,22 +5622,22 @@
         <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>92.68647758675968</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>48.10852568854899</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.90696048418764</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
         <v>3.530573790338288</v>
@@ -5695,13 +5695,13 @@
         <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U19" t="n">
         <v>93.48491238239833</v>
@@ -5716,7 +5716,7 @@
         <v>93.48491238239833</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.2295980564601</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="C21" t="n">
-        <v>360.2295980564601</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D21" t="n">
-        <v>211.2951883952089</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E21" t="n">
-        <v>52.05773338975337</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>52.05773338975337</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>52.05773338975337</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>52.05773338975337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>625.6759608580869</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>625.6759608580869</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>625.6759608580869</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>625.6759608580869</v>
       </c>
       <c r="X21" t="n">
-        <v>360.2295980564601</v>
+        <v>625.6759608580869</v>
       </c>
       <c r="Y21" t="n">
-        <v>360.2295980564601</v>
+        <v>417.9156620931329</v>
       </c>
     </row>
     <row r="22">
@@ -5926,28 +5926,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,13 +6072,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.2506127830665</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
         <v>829.5248650203655</v>
@@ -6166,31 +6166,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>877.0247885897328</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>491.7024528141798</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C27" t="n">
-        <v>317.2494235330527</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D27" t="n">
-        <v>317.2494235330527</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6309,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6339,16 +6339,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>867.6780885992016</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>867.6780885992016</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>659.9177898342477</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="28">
@@ -6418,16 +6418,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>333.7844730889342</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>333.7844730889342</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41.27661899316598</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C30" t="n">
-        <v>41.27661899316598</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>41.27661899316598</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>41.27661899316598</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>41.27661899316598</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>41.27661899316598</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6549,10 +6549,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N30" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N30" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W30" t="n">
-        <v>417.2522547781879</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X30" t="n">
-        <v>417.2522547781879</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y30" t="n">
-        <v>209.491956013234</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>359.8579014620034</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C33" t="n">
-        <v>185.4048721808764</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6813,16 +6813,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>735.8335372470253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>735.8335372470253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y33" t="n">
-        <v>528.0732384820715</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6956,25 +6956,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X35" t="n">
         <v>749.627473042513</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>346.2587618989155</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>171.8057326177884</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>399.5118995681682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7254,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
         <v>473.4149733950735</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.38115216564972</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.38115216564972</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="43">
@@ -7591,28 +7591,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C44" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D44" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E44" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F44" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G44" t="n">
         <v>3.530573790338288</v>
@@ -7649,13 +7649,13 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K44" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L44" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M44" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N44" t="n">
         <v>89.14698820604177</v>
@@ -7667,31 +7667,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R44" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S44" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T44" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U44" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V44" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W44" t="n">
-        <v>92.68647758675968</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X44" t="n">
-        <v>48.10852568854899</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="45">
@@ -7734,10 +7734,10 @@
         <v>47.22142444577459</v>
       </c>
       <c r="M45" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N45" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O45" t="n">
         <v>176.5286895169144</v>
@@ -7755,19 +7755,19 @@
         <v>176.5286895169144</v>
       </c>
       <c r="T45" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U45" t="n">
-        <v>137.2644294849704</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V45" t="n">
-        <v>137.2644294849704</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W45" t="n">
-        <v>92.68647758675968</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X45" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y45" t="n">
         <v>3.530573790338288</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.99639902664363</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C46" t="n">
-        <v>41.99639902664363</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D46" t="n">
-        <v>41.99639902664363</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L46" t="n">
-        <v>69.3105240343566</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M46" t="n">
-        <v>108.4985622265788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N46" t="n">
-        <v>152.1894128820151</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W46" t="n">
-        <v>175.7302547212757</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X46" t="n">
-        <v>131.152302823065</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.57435092485433</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7985,7 @@
         <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
@@ -7994,7 +7994,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5820500585697</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8070,7 +8070,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>178.1065797935588</v>
@@ -8216,16 +8216,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
         <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>274.2303838009153</v>
@@ -8301,19 +8301,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>182.3308283893217</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
         <v>273.5452359758195</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,16 +8693,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
         <v>275.3651681344982</v>
@@ -8781,13 +8781,13 @@
         <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
         <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
         <v>274.4784056065013</v>
@@ -8942,7 +8942,7 @@
         <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>273.5820500585697</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9015,16 +9015,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9173,13 +9173,13 @@
         <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,16 +9720,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O24" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,7 +9957,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,10 +9966,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>349.0484638974528</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L44" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>272.6952875305729</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>273.5452359758195</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O44" t="n">
         <v>274.2303838009153</v>
@@ -11382,13 +11382,13 @@
         <v>182.6865521591028</v>
       </c>
       <c r="M45" t="n">
-        <v>184.4830882253185</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N45" t="n">
         <v>175.4738844625619</v>
       </c>
       <c r="O45" t="n">
-        <v>186.728416823673</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,7 +22556,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,28 +22589,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>340.8501824613893</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.8110783456798</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="4">
@@ -22720,10 +22720,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>135.5187846613368</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
         <v>49.22700773744418</v>
@@ -22744,10 +22744,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22784,16 +22784,16 @@
         <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22826,13 +22826,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="6">
@@ -22863,7 +22863,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,7 +22872,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22914,22 +22914,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W6" t="n">
         <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.8110783456798</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22957,13 +22957,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,16 +22981,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0849077710508</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>343.862224231856</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>193.5442607079387</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23103,19 +23103,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E9" t="n">
-        <v>118.7734630237764</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23160,10 +23160,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23194,13 +23194,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>73.42748985075127</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5508692414544</v>
+        <v>315.8114241890584</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>120.9881997240699</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23382,25 +23382,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>132.7973439262303</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>70.70604911564477</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="14">
@@ -23501,10 +23501,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23513,7 +23513,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,10 +23546,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>194.2149313470516</v>
       </c>
       <c r="U14" t="n">
-        <v>222.4647346907568</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>283.6200860909063</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W15" t="n">
-        <v>212.8233657292951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="17">
@@ -23741,16 +23741,16 @@
         <v>337.7981976930332</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>300.6031846841426</v>
       </c>
       <c r="I17" t="n">
-        <v>171.6042721387814</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23826,10 +23826,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23862,13 +23862,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>207.562810781691</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="19">
@@ -23890,10 +23890,10 @@
         <v>135.6998078027087</v>
       </c>
       <c r="C19" t="n">
-        <v>123.1146487193992</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D19" t="n">
-        <v>147.8250225705301</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="20">
@@ -23978,10 +23978,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24051,22 +24051,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.94780847466984</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>36.85051709263561</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24272,7 +24272,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>135.5813345092877</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24406,10 +24406,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24579,16 +24579,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>156.2797069185993</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>88.0324132209154</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>269.1307943144919</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,28 +24722,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>134.0843592731221</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,7 +24774,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>90.45992311237273</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,7 +24968,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>141.3742455663405</v>
+        <v>84.58157038459437</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25053,16 +25053,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212724</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>6.645736842900988</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>81.03951947102121</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25391,16 +25391,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25442,7 +25442,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>40.28516553904254</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>169.6449844288197</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,13 +25682,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>22.29358612056504</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>343.862224231856</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>194.2149313470516</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,10 +25925,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>342.105766276825</v>
@@ -25995,22 +25995,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W45" t="n">
         <v>207.562810781691</v>
       </c>
       <c r="X45" t="n">
-        <v>161.6408128242489</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y45" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26026,10 +26026,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>285.7325478889088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.4524809728662</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352705.82323287</v>
+        <v>352705.8232328698</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352705.8232328701</v>
+        <v>352705.82323287</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77709.4534782792</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="C2" t="n">
-        <v>77709.45347827919</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="D2" t="n">
         <v>77709.45347827919</v>
@@ -26323,16 +26323,16 @@
         <v>77709.45347827917</v>
       </c>
       <c r="F2" t="n">
-        <v>77709.4534782792</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827919</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="H2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="I2" t="n">
         <v>108004.4371453661</v>
-      </c>
-      <c r="I2" t="n">
-        <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26353,7 +26353,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>77709.45347827917</v>
+        <v>77709.45347827919</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>11546.91810999088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>14064.22462046147</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>19775.08488543299</v>
       </c>
       <c r="I4" t="n">
         <v>19775.08488543298</v>
@@ -26448,10 +26448,10 @@
         <v>19775.08488543298</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>19775.08488543299</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>19775.08488543299</v>
       </c>
       <c r="O4" t="n">
         <v>19775.08488543298</v>
@@ -26519,10 +26519,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12544.68677291641</v>
+        <v>12544.6867729164</v>
       </c>
       <c r="C6" t="n">
-        <v>27334.39277716062</v>
+        <v>27334.39277716061</v>
       </c>
       <c r="D6" t="n">
         <v>27334.39277716062</v>
@@ -26531,37 +26531,37 @@
         <v>60961.99277716061</v>
       </c>
       <c r="F6" t="n">
-        <v>60961.99277716064</v>
+        <v>60961.99277716061</v>
       </c>
       <c r="G6" t="n">
-        <v>60961.99277716062</v>
+        <v>60961.9927771606</v>
       </c>
       <c r="H6" t="n">
-        <v>20455.11652584637</v>
+        <v>20455.11652584636</v>
       </c>
       <c r="I6" t="n">
+        <v>73575.6834961714</v>
+      </c>
+      <c r="J6" t="n">
+        <v>62028.76538618052</v>
+      </c>
+      <c r="K6" t="n">
+        <v>73575.68349617136</v>
+      </c>
+      <c r="L6" t="n">
+        <v>73575.68349617136</v>
+      </c>
+      <c r="M6" t="n">
         <v>73575.68349617138</v>
       </c>
-      <c r="J6" t="n">
-        <v>62028.7653861805</v>
-      </c>
-      <c r="K6" t="n">
-        <v>73575.68349617138</v>
-      </c>
-      <c r="L6" t="n">
-        <v>73575.68349617138</v>
-      </c>
-      <c r="M6" t="n">
-        <v>73575.68349617136</v>
-      </c>
       <c r="N6" t="n">
-        <v>73575.68349617138</v>
+        <v>73575.68349617139</v>
       </c>
       <c r="O6" t="n">
         <v>73575.68349617138</v>
       </c>
       <c r="P6" t="n">
-        <v>60961.99277716061</v>
+        <v>60961.99277716062</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>44.13217237922856</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34705,16 +34705,16 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>42.34905430330016</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,7 +34790,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>44.13217237922859</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>44.13217237922859</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="O6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>42.34905430330016</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
         <v>44.13217237922859</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O9" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>44.13217237922859</v>
@@ -35501,13 +35501,13 @@
         <v>42.34905430330018</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
         <v>44.13217237922859</v>
@@ -35662,7 +35662,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,13 +35893,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="O17" t="n">
-        <v>42.34905430330016</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O24" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,10 +36686,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>99.81127712997396</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>42.34905430330018</v>
-      </c>
-      <c r="N44" t="n">
-        <v>44.13217237922859</v>
       </c>
       <c r="O44" t="n">
         <v>44.13217237922859</v>
@@ -38102,13 +38102,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M45" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N45" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O45" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>414138.8255054448</v>
+        <v>437339.8706939355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914735</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136533</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4839764.630106804</v>
+        <v>5669319.084475418</v>
       </c>
     </row>
     <row r="11">
@@ -671,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>28.88091821707973</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>103.6238122925896</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>38.87161743162455</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.13217237922859</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>38.87161743162455</v>
+        <v>1.94451941863394</v>
       </c>
       <c r="W6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>98.8791247817603</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.596384271265849</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.653131001028</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.88091821707974</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E20" t="n">
         <v>241.0142888776591</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>36.89750082124304</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>163.314211602186</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>117.650282556389</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,70 +2710,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.44882437674524</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -2925,7 +2925,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>213.7435569254095</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>241.0142888776591</v>
@@ -3041,7 +3041,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>150.9993436125</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>44.97160018410263</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3506,25 +3506,25 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>44.13217237922859</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>21.6333565193116</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>44.13217237922859</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>92.68647758675968</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>48.10852568854899</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X3" t="n">
-        <v>48.10852568854899</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>92.68647758675968</v>
+        <v>962.092994481713</v>
       </c>
       <c r="W6" t="n">
-        <v>48.10852568854899</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X6" t="n">
-        <v>3.530573790338288</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.530573790338288</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1809137745201</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.10852568854899</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.37278572049297</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C9" t="n">
-        <v>87.37278572049297</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>48.10852568854899</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>763.009722243562</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>560.8231276023281</v>
       </c>
       <c r="X9" t="n">
-        <v>87.37278572049297</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y9" t="n">
-        <v>87.37278572049297</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>87.37278572049297</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>87.37278572049297</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>87.37278572049297</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>87.37278572049297</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>87.37278572049297</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.79483382228227</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>259.492073253973</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>259.492073253973</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>112.957515280858</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>112.957515280858</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>47.22142444577459</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W12" t="n">
-        <v>42.79483382228227</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.10852568854899</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C14" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>137.2644294849704</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U14" t="n">
-        <v>92.68647758675968</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V14" t="n">
-        <v>48.10852568854899</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W14" t="n">
-        <v>48.10852568854899</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X14" t="n">
-        <v>48.10852568854899</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.10852568854899</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>134.6031257566472</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>42.79483382228227</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>42.79483382228227</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C17" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D17" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E17" t="n">
-        <v>87.37278572049297</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>87.37278572049297</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>87.37278572049297</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>131.9507376187037</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U17" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V17" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W17" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X17" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>131.9507376187037</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>134.6031257566472</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>176.5286895169144</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D20" t="n">
         <v>262.7299197543128</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>417.9156620931329</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C21" t="n">
-        <v>417.9156620931329</v>
+        <v>206.2398882739901</v>
       </c>
       <c r="D21" t="n">
-        <v>417.9156620931329</v>
+        <v>57.30547861273888</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>57.30547861273888</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5859,22 +5859,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>625.6759608580869</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>625.6759608580869</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>625.6759608580869</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>625.6759608580869</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X21" t="n">
-        <v>625.6759608580869</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y21" t="n">
-        <v>417.9156620931329</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="22">
@@ -5926,28 +5926,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6026,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6072,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6108,10 +6108,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="25">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6266,10 @@
         <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>327.4530077769195</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="31">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D32" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="C32" t="n">
+      <c r="E32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="D32" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>82.77962309005554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6819,10 +6819,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>346.2587618989155</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C36" t="n">
-        <v>171.8057326177884</v>
+        <v>486.248002141161</v>
       </c>
       <c r="D36" t="n">
-        <v>171.8057326177884</v>
+        <v>337.3135924799097</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0761374744542</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0761374744542</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.0761374744542</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>64.70700188203357</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7020,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W36" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X36" t="n">
-        <v>554.0190606638694</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y36" t="n">
-        <v>346.2587618989155</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="37">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="40">
@@ -7369,7 +7369,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
         <v>829.5248650203655</v>
@@ -7491,19 +7491,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>860.4511411346975</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7591,10 +7591,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
         <v>19.28114311021272</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>92.68647758675968</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>92.68647758675968</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D44" t="n">
-        <v>92.68647758675968</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E44" t="n">
-        <v>92.68647758675968</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F44" t="n">
-        <v>48.10852568854899</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>131.9507376187037</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C45" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D45" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E45" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F45" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>90.91227510121089</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>134.6031257566472</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>176.5286895169144</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>87.37278572049297</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W45" t="n">
-        <v>42.79483382228227</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X45" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O15" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N24" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -11154,7 +11154,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>168.5314335381781</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>186.2662063012469</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22559,16 +22559,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,28 +22589,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>340.8501824613893</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>69.08468669572613</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22680,19 +22680,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>193.9289697178007</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5505233980758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22720,13 +22720,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.601669284252</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22838,19 +22838,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>347.366321224429</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22914,22 +22914,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>193.9289697178007</v>
+        <v>230.8560677307913</v>
       </c>
       <c r="W6" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22957,13 +22957,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.862224231856</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>321.1407193917789</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,13 +23100,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23145,13 +23145,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>72.80404632207753</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23160,10 +23160,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>142.2954822415181</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23230,7 +23230,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>315.8114241890584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23303,13 +23303,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,28 +23337,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>109.6390599652306</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,25 +23385,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>166.9013677718529</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>70.70604911564477</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,7 +23513,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,19 +23546,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2149313470516</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23589,7 +23589,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>1.060332922355897</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>193.9289697178007</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23707,7 +23707,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23738,22 +23738,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>337.7981976930332</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>300.6031846841426</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23826,10 +23826,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23859,25 +23859,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E20" t="n">
         <v>140.9160811946027</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>108.1717115721409</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>36.85051709263561</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>95.24412853877561</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>142.81920059726</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24348,10 +24348,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24458,10 +24458,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24506,7 +24506,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>367.9216046054328</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.0324132209154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24734,7 +24734,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>134.0843592731221</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24813,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>12.19782515556528</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E32" t="n">
         <v>140.9160811946027</v>
@@ -24929,7 +24929,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>84.58157038459437</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25059,7 +25059,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25236,10 +25236,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>6.645736842900988</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,10 +25248,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>44.42503266731245</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25394,25 +25394,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>289.0078237680873</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25476,7 +25476,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>32.73830033054396</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,19 +25518,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25831,13 +25831,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.862224231856</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>371.1705651359065</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25953,19 +25953,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>123.4358558740723</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,16 +25998,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>188.6684147701967</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>166.9013677718529</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>102.3017902673406</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.7942029044125</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352705.8232328698</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352705.82323287</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352705.82323287</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352705.82323287</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352705.8232328698</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352705.82323287</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352705.82323287</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77709.45347827919</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
-        <v>77709.45347827919</v>
+        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26347,13 +26347,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>77709.45347827919</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999088</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543299</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543299</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543299</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26509,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12544.6867729164</v>
+        <v>-37960.95279092422</v>
       </c>
       <c r="C6" t="n">
-        <v>27334.39277716061</v>
+        <v>42808.47874062356</v>
       </c>
       <c r="D6" t="n">
-        <v>27334.39277716062</v>
+        <v>42808.47874062351</v>
       </c>
       <c r="E6" t="n">
-        <v>60961.99277716061</v>
+        <v>76436.07874062349</v>
       </c>
       <c r="F6" t="n">
-        <v>60961.99277716061</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="G6" t="n">
-        <v>60961.9927771606</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="H6" t="n">
-        <v>20455.11652584636</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="I6" t="n">
-        <v>73575.6834961714</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="J6" t="n">
-        <v>62028.76538618052</v>
+        <v>13376.13614151731</v>
       </c>
       <c r="K6" t="n">
-        <v>73575.68349617136</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="L6" t="n">
-        <v>73575.68349617136</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="M6" t="n">
-        <v>73575.68349617138</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="N6" t="n">
-        <v>73575.68349617139</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="O6" t="n">
-        <v>73575.68349617138</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="P6" t="n">
-        <v>60961.99277716062</v>
+        <v>76436.07874062352</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26829,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922856</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330018</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O15" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330016</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,13 +37157,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>34.55702612384782</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>44.13217237922859</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>42.34905430330016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437339.8706939355</v>
+        <v>439044.6267082024</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006065</v>
       </c>
     </row>
     <row r="9">
@@ -668,61 +670,61 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C3" t="n">
-        <v>103.6238122925896</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,64 +895,64 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1029,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V6" t="n">
-        <v>1.94451941863394</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1218,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>72.05537011386205</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>98.8791247817603</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1455,22 +1457,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>2.596384271265849</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="13">
@@ -1567,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>111.1751113141406</v>
+        <v>84.97365353379641</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1850,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>200.3360962888297</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2084,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2160,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>36.89750082124304</v>
+        <v>38.14098620066919</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2360,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>125.2226902263469</v>
       </c>
       <c r="C24" t="n">
-        <v>29.88929839105575</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2454,13 +2456,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2488,58 +2490,58 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,55 +2572,55 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2883,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>213.7435569254095</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>241.0142888776591</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.05241763862477</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>52.65774996597684</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,11 +3268,11 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>3.265316057196634</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3353,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>109.1694290986956</v>
       </c>
       <c r="I36" t="n">
-        <v>44.97160018410263</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3512,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>50.46697834767978</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>150.4149128677507</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>142.8673256144868</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>21.6333565193116</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.7057932302607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4440,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>500.6814290152826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>500.6814290152826</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>292.9211302503287</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4600,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>962.092994481713</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>718.6442178376129</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>718.6442178376129</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>352.9716273967953</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="C9" t="n">
-        <v>178.5185981156682</v>
+        <v>581.7526260239764</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>581.7526260239764</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>763.009722243562</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>560.8231276023281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>560.8231276023281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>560.8231276023281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>560.8231276023281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>352.9716273967953</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>352.9716273967953</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="10">
@@ -4981,13 +4983,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.8795121963512</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C12" t="n">
-        <v>408.4264829152243</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D12" t="n">
-        <v>259.492073253973</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E12" t="n">
-        <v>259.492073253973</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F12" t="n">
-        <v>112.957515280858</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G12" t="n">
-        <v>112.957515280858</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5130,7 +5132,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5145,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>582.8795121963512</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="13">
@@ -5215,13 +5217,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5306,22 +5308,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.5792353467183</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>131.5792353467183</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D15" t="n">
-        <v>131.5792353467183</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E15" t="n">
-        <v>131.5792353467183</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F15" t="n">
-        <v>131.5792353467183</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G15" t="n">
-        <v>131.5792353467183</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>547.1910343172051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>339.3395341116723</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.5792353467183</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5452,19 +5454,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,10 +5603,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5698,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>380.6929175551172</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="C21" t="n">
-        <v>206.2398882739901</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="D21" t="n">
-        <v>57.30547861273888</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="E21" t="n">
-        <v>57.30547861273888</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
         <v>20.03527576299844</v>
@@ -5838,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>588.4532163200711</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>588.4532163200711</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y21" t="n">
-        <v>380.6929175551172</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="22">
@@ -5947,7 +5949,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,28 +6010,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
         <v>262.7299197543128</v>
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.47235360622864</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6102,16 +6104,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X24" t="n">
-        <v>257.2326523711826</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.47235360622864</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6312,40 +6314,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>913.4938269565423</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T27" t="n">
-        <v>913.4938269565423</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U27" t="n">
-        <v>913.4938269565423</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6418,7 +6420,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6494,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
         <v>725.4530095217538</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>271.3811041200179</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>271.3811041200179</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>271.3811041200179</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X30" t="n">
-        <v>271.3811041200179</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y30" t="n">
-        <v>271.3811041200179</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
         <v>749.627473042513</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6789,40 +6791,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564972</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>660.701031422288</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="C36" t="n">
-        <v>486.248002141161</v>
+        <v>278.487703376207</v>
       </c>
       <c r="D36" t="n">
-        <v>337.3135924799097</v>
+        <v>129.5532937149558</v>
       </c>
       <c r="E36" t="n">
-        <v>178.0761374744542</v>
+        <v>129.5532937149558</v>
       </c>
       <c r="F36" t="n">
-        <v>178.0761374744542</v>
+        <v>129.5532937149558</v>
       </c>
       <c r="G36" t="n">
-        <v>178.0761374744542</v>
+        <v>129.5532937149558</v>
       </c>
       <c r="H36" t="n">
-        <v>64.70700188203357</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7059,7 +7061,7 @@
         <v>660.701031422288</v>
       </c>
       <c r="Y36" t="n">
-        <v>660.701031422288</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="37">
@@ -7117,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>569.2254314512334</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>569.2254314512334</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>569.2254314512334</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>569.2254314512334</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.4496078827955</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C39" t="n">
-        <v>145.4496078827955</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>145.4496078827955</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>353.3011080883284</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>353.3011080883284</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>145.4496078827955</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.4496078827955</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7369,13 +7371,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D41" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>171.2153985321831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.4307355522512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C44" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D44" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E44" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>384.2867411876791</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C45" t="n">
-        <v>384.2867411876791</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D45" t="n">
-        <v>384.2867411876791</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E45" t="n">
-        <v>384.2867411876791</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
         <v>473.4149733950735</v>
@@ -7755,22 +7757,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>816.40527539251</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>588.181657128899</v>
       </c>
       <c r="V45" t="n">
-        <v>627.7355178317791</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W45" t="n">
-        <v>384.2867411876791</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X45" t="n">
-        <v>384.2867411876791</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y45" t="n">
-        <v>384.2867411876791</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="46">
@@ -7786,7 +7788,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8778,10 +8780,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9249,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10920,7 +10922,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C3" t="n">
-        <v>69.08468669572613</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22680,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>118.3441281936695</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22838,7 +22840,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22917,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V6" t="n">
-        <v>230.8560677307913</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23106,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>85.58971034153889</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>72.80404632207753</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23221,16 +23223,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23309,19 +23311,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23343,22 +23345,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6390599652306</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="13">
@@ -23455,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23495,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.060332922355897</v>
+        <v>27.26179070270005</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23634,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23707,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23738,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>22.7597532753017</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23972,13 +23974,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24048,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>108.1717115721409</v>
+        <v>106.9282261927147</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24096,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24108,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>41.31049342352048</v>
       </c>
       <c r="C24" t="n">
-        <v>142.81920059726</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24342,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24458,10 +24460,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24488,25 +24490,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>367.9216046054328</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24658,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
@@ -24734,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>55.35807233572677</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24771,10 +24773,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>12.19782515556528</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24920,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>140.9160811946027</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>137.4807660112426</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25011,10 +25013,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>59.57769427051962</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,10 +25156,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25202,7 +25204,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>366.4657846212724</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25239,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,10 +25250,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.066015137800846</v>
       </c>
       <c r="I36" t="n">
-        <v>44.42503266731245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25400,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>289.0078237680873</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,19 +25447,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>32.73830033054396</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,13 +25684,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>22.29358612056504</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25871,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25910,16 +25912,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>108.4783272933497</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25953,19 +25955,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>123.4358558740723</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,10 +25997,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>154.1472015305199</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
         <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37960.95279092422</v>
+        <v>-37960.95279092413</v>
       </c>
       <c r="C6" t="n">
         <v>42808.47874062356</v>
       </c>
       <c r="D6" t="n">
-        <v>42808.47874062351</v>
+        <v>42808.47874062355</v>
       </c>
       <c r="E6" t="n">
-        <v>76436.07874062349</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="F6" t="n">
-        <v>76436.07874062355</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="G6" t="n">
         <v>76436.07874062352</v>
       </c>
       <c r="H6" t="n">
-        <v>76436.07874062352</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="I6" t="n">
         <v>76436.07874062353</v>
@@ -26546,22 +26548,22 @@
         <v>13376.13614151731</v>
       </c>
       <c r="K6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="L6" t="n">
+        <v>76436.07874062353</v>
+      </c>
+      <c r="M6" t="n">
         <v>76436.07874062352</v>
       </c>
-      <c r="M6" t="n">
-        <v>76436.07874062353</v>
-      </c>
       <c r="N6" t="n">
-        <v>76436.07874062356</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="O6" t="n">
         <v>76436.07874062352</v>
       </c>
       <c r="P6" t="n">
-        <v>76436.07874062352</v>
+        <v>76436.07874062353</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35419,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35498,10 +35500,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O12" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35969,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
